--- a/acervo separado/Acervo_Gravura.xlsx
+++ b/acervo separado/Acervo_Gravura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB6065F-C591-4ACB-A3F0-93B2F1E3A8BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EFD54-71B7-46E2-BB54-8F525919FE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$694</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$732</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$694</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11076" uniqueCount="2764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11081" uniqueCount="2764">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -8717,8 +8717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="D556" sqref="D556"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R686" sqref="R686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39719,6 +39719,9 @@
       <c r="L589" t="s">
         <v>137</v>
       </c>
+      <c r="M589" t="s">
+        <v>136</v>
+      </c>
       <c r="O589" t="s">
         <v>1890</v>
       </c>
@@ -44947,6 +44950,9 @@
       <c r="L686" t="s">
         <v>137</v>
       </c>
+      <c r="M686" t="s">
+        <v>136</v>
+      </c>
       <c r="O686" t="s">
         <v>2135</v>
       </c>
@@ -44981,6 +44987,9 @@
       <c r="L687" t="s">
         <v>137</v>
       </c>
+      <c r="M687" t="s">
+        <v>136</v>
+      </c>
       <c r="O687" t="s">
         <v>2135</v>
       </c>
@@ -45015,6 +45024,9 @@
       <c r="L688" t="s">
         <v>137</v>
       </c>
+      <c r="M688" t="s">
+        <v>136</v>
+      </c>
       <c r="O688" t="s">
         <v>541</v>
       </c>
@@ -45108,6 +45120,9 @@
       <c r="L690" t="s">
         <v>137</v>
       </c>
+      <c r="M690" t="s">
+        <v>136</v>
+      </c>
       <c r="O690" t="s">
         <v>541</v>
       </c>
@@ -45523,7 +45538,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q694" xr:uid="{8124D544-9C02-420C-8716-71419A885248}"/>
+  <autoFilter ref="A1:Q732" xr:uid="{8124D544-9C02-420C-8716-71419A885248}"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.1811023622047245" bottom="1.1811023622047245" header="0.78740157480314954" footer="0.78740157480314954"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>

--- a/acervo separado/Acervo_Gravura.xlsx
+++ b/acervo separado/Acervo_Gravura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4EFD54-71B7-46E2-BB54-8F525919FE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C36CD4-F9D1-41E1-812E-C8719C1214D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$732</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$694</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$694</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11081" uniqueCount="2764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11043" uniqueCount="2763">
   <si>
     <t>Ordem de Registro</t>
   </si>
@@ -7275,9 +7275,6 @@
   </si>
   <si>
     <t>12,4 cm</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>48,0cm</t>
@@ -8715,10 +8712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V732"/>
+  <dimension ref="A1:V694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R686" sqref="R686"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J703" sqref="J703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8858,7 +8855,7 @@
         <v>2359</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -8911,7 +8908,7 @@
         <v>2397</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -8961,7 +8958,7 @@
         <v>2397</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -9011,7 +9008,7 @@
         <v>2359</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -9061,7 +9058,7 @@
         <v>2397</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -9114,7 +9111,7 @@
         <v>2397</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -9167,7 +9164,7 @@
         <v>2397</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -9220,7 +9217,7 @@
         <v>2397</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -9267,10 +9264,10 @@
         <v>52</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -9317,10 +9314,10 @@
         <v>52</v>
       </c>
       <c r="R11" s="2" t="s">
+        <v>2422</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>2423</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -9370,7 +9367,7 @@
         <v>2397</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -9417,10 +9414,10 @@
         <v>52</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -9473,7 +9470,7 @@
         <v>2397</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -9523,7 +9520,7 @@
         <v>2397</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -9576,7 +9573,7 @@
         <v>2397</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -9626,7 +9623,7 @@
         <v>2397</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -9679,7 +9676,7 @@
         <v>2397</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -9732,7 +9729,7 @@
         <v>2397</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -9782,7 +9779,7 @@
         <v>2397</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -9829,10 +9826,10 @@
         <v>52</v>
       </c>
       <c r="R21" s="2" t="s">
+        <v>2424</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>2425</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -9879,7 +9876,7 @@
         <v>52</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>2266</v>
@@ -9935,7 +9932,7 @@
         <v>2359</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -9982,10 +9979,10 @@
         <v>172</v>
       </c>
       <c r="R24" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>2428</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>2429</v>
       </c>
       <c r="T24" t="s">
         <v>2171</v>
@@ -10038,10 +10035,10 @@
         <v>172</v>
       </c>
       <c r="R25" s="2" t="s">
+        <v>2429</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>2430</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>2431</v>
       </c>
       <c r="T25" t="s">
         <v>2171</v>
@@ -10094,10 +10091,10 @@
         <v>181</v>
       </c>
       <c r="R26" s="2" t="s">
+        <v>2431</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>2432</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -10144,10 +10141,10 @@
         <v>187</v>
       </c>
       <c r="R27" s="2" t="s">
+        <v>2433</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>2434</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>2435</v>
       </c>
       <c r="T27" t="s">
         <v>2171</v>
@@ -10203,7 +10200,7 @@
         <v>172</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>2227</v>
@@ -10256,7 +10253,7 @@
         <v>2185</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="T29" t="s">
         <v>2171</v>
@@ -10315,7 +10312,7 @@
         <v>2191</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -10365,7 +10362,7 @@
         <v>2192</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -10415,7 +10412,7 @@
         <v>2192</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -10465,7 +10462,7 @@
         <v>2193</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -10515,7 +10512,7 @@
         <v>2194</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -10565,7 +10562,7 @@
         <v>2195</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -10615,7 +10612,7 @@
         <v>2196</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -10665,7 +10662,7 @@
         <v>2197</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="T37" t="s">
         <v>2171</v>
@@ -10724,7 +10721,7 @@
         <v>2192</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -10774,7 +10771,7 @@
         <v>2198</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -10821,7 +10818,7 @@
         <v>172</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>2272</v>
@@ -10874,7 +10871,7 @@
         <v>2216</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -10921,10 +10918,10 @@
         <v>172</v>
       </c>
       <c r="R42" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="S42" s="2" t="s">
         <v>2448</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -11024,7 +11021,7 @@
         <v>2398</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -11074,7 +11071,7 @@
         <v>2412</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -11124,7 +11121,7 @@
         <v>2412</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -11174,7 +11171,7 @@
         <v>2191</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -11224,7 +11221,7 @@
         <v>2365</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -11274,7 +11271,7 @@
         <v>2192</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -11324,7 +11321,7 @@
         <v>2244</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="T50" t="s">
         <v>2171</v>
@@ -11380,10 +11377,10 @@
         <v>172</v>
       </c>
       <c r="R51" s="2" t="s">
+        <v>2447</v>
+      </c>
+      <c r="S51" s="2" t="s">
         <v>2448</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -11430,10 +11427,10 @@
         <v>172</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T52" t="s">
         <v>2171</v>
@@ -11495,7 +11492,7 @@
         <v>2353</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="T53" t="s">
         <v>2171</v>
@@ -11551,10 +11548,10 @@
         <v>181</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -11604,7 +11601,7 @@
         <v>2194</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
@@ -11651,10 +11648,10 @@
         <v>172</v>
       </c>
       <c r="R56" s="2" t="s">
+        <v>2456</v>
+      </c>
+      <c r="S56" s="2" t="s">
         <v>2457</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>2458</v>
       </c>
       <c r="T56" t="s">
         <v>2171</v>
@@ -11713,7 +11710,7 @@
         <v>2352</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T57" t="s">
         <v>2171</v>
@@ -11769,10 +11766,10 @@
         <v>181</v>
       </c>
       <c r="R58" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>2460</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -11819,10 +11816,10 @@
         <v>106</v>
       </c>
       <c r="R59" s="2" t="s">
+        <v>2461</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>2462</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>2463</v>
       </c>
       <c r="T59" t="s">
         <v>2171</v>
@@ -11881,7 +11878,7 @@
         <v>2172</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -11931,7 +11928,7 @@
         <v>2172</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -11981,7 +11978,7 @@
         <v>2363</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
@@ -12028,10 +12025,10 @@
         <v>172</v>
       </c>
       <c r="R63" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="S63" s="2" t="s">
         <v>2467</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>2468</v>
       </c>
       <c r="T63" t="s">
         <v>2171</v>
@@ -12087,10 +12084,10 @@
         <v>172</v>
       </c>
       <c r="R64" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="S64" s="2" t="s">
         <v>2467</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -12137,10 +12134,10 @@
         <v>172</v>
       </c>
       <c r="R65" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="S65" s="2" t="s">
         <v>2469</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -12190,7 +12187,7 @@
         <v>2359</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -12240,7 +12237,7 @@
         <v>2368</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -12287,7 +12284,7 @@
         <v>172</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>2257</v>
@@ -12346,10 +12343,10 @@
         <v>172</v>
       </c>
       <c r="R69" s="2" t="s">
+        <v>2473</v>
+      </c>
+      <c r="S69" s="2" t="s">
         <v>2474</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>2475</v>
       </c>
       <c r="T69" t="s">
         <v>2171</v>
@@ -12405,7 +12402,7 @@
         <v>172</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>2316</v>
@@ -12464,10 +12461,10 @@
         <v>172</v>
       </c>
       <c r="R71" s="2" t="s">
+        <v>2476</v>
+      </c>
+      <c r="S71" s="2" t="s">
         <v>2477</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>2478</v>
       </c>
       <c r="T71" t="s">
         <v>2171</v>
@@ -12526,7 +12523,7 @@
         <v>2338</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="T72" t="s">
         <v>2171</v>
@@ -12582,10 +12579,10 @@
         <v>52</v>
       </c>
       <c r="R73" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="S73" s="2" t="s">
         <v>2480</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -12632,10 +12629,10 @@
         <v>52</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -12682,10 +12679,10 @@
         <v>52</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -12732,10 +12729,10 @@
         <v>52</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -12785,7 +12782,7 @@
         <v>2191</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -12835,7 +12832,7 @@
         <v>2191</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -12885,7 +12882,7 @@
         <v>2198</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -12935,7 +12932,7 @@
         <v>2198</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -12985,7 +12982,7 @@
         <v>2342</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="T81" t="s">
         <v>2171</v>
@@ -13044,7 +13041,7 @@
         <v>2208</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -13091,10 +13088,10 @@
         <v>181</v>
       </c>
       <c r="R83" s="2" t="s">
+        <v>2485</v>
+      </c>
+      <c r="S83" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>2487</v>
       </c>
       <c r="T83" t="s">
         <v>2171</v>
@@ -13150,10 +13147,10 @@
         <v>181</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -13262,7 +13259,7 @@
         <v>2396</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -13309,10 +13306,10 @@
         <v>52</v>
       </c>
       <c r="R87" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="S87" s="2" t="s">
         <v>2489</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -13412,7 +13409,7 @@
         <v>2397</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -13462,7 +13459,7 @@
         <v>2195</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -13509,10 +13506,10 @@
         <v>187</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -13562,7 +13559,7 @@
         <v>2406</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -13609,7 +13606,7 @@
         <v>172</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>2326</v>
@@ -13662,7 +13659,7 @@
         <v>2406</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -13709,10 +13706,10 @@
         <v>172</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -13762,7 +13759,7 @@
         <v>2406</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -13812,7 +13809,7 @@
         <v>2193</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -13859,10 +13856,10 @@
         <v>172</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -13906,10 +13903,10 @@
         <v>181</v>
       </c>
       <c r="R99" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="S99" s="2" t="s">
         <v>2494</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>2495</v>
       </c>
       <c r="T99" t="s">
         <v>2171</v>
@@ -13965,10 +13962,10 @@
         <v>181</v>
       </c>
       <c r="R100" s="2" t="s">
+        <v>2495</v>
+      </c>
+      <c r="S100" s="2" t="s">
         <v>2496</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>2497</v>
       </c>
       <c r="T100" t="s">
         <v>2171</v>
@@ -14024,7 +14021,7 @@
         <v>2368</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="T101" t="s">
         <v>2171</v>
@@ -14080,10 +14077,10 @@
         <v>172</v>
       </c>
       <c r="R102" s="2" t="s">
+        <v>2498</v>
+      </c>
+      <c r="S102" s="2" t="s">
         <v>2499</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -14130,10 +14127,10 @@
         <v>52</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T103" t="s">
         <v>2171</v>
@@ -14186,10 +14183,10 @@
         <v>52</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -14236,10 +14233,10 @@
         <v>52</v>
       </c>
       <c r="R105" s="2" t="s">
+        <v>2500</v>
+      </c>
+      <c r="S105" s="2" t="s">
         <v>2501</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -14286,10 +14283,10 @@
         <v>181</v>
       </c>
       <c r="R106" s="2" t="s">
+        <v>2502</v>
+      </c>
+      <c r="S106" s="2" t="s">
         <v>2503</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>2504</v>
       </c>
       <c r="T106" t="s">
         <v>2171</v>
@@ -14348,7 +14345,7 @@
         <v>2184</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="T107" t="s">
         <v>2171</v>
@@ -14407,7 +14404,7 @@
         <v>2355</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -14516,7 +14513,7 @@
         <v>2359</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -14563,7 +14560,7 @@
         <v>2352</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -14610,7 +14607,7 @@
         <v>2341</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T112" t="s">
         <v>2171</v>
@@ -14663,7 +14660,7 @@
         <v>52</v>
       </c>
       <c r="R113" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="S113" s="2" t="s">
         <v>2309</v>
@@ -14722,7 +14719,7 @@
         <v>2341</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="T114" t="s">
         <v>2171</v>
@@ -14775,10 +14772,10 @@
         <v>172</v>
       </c>
       <c r="R115" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="S115" s="2" t="s">
         <v>2509</v>
-      </c>
-      <c r="S115" s="2" t="s">
-        <v>2510</v>
       </c>
       <c r="T115" t="s">
         <v>2171</v>
@@ -14834,7 +14831,7 @@
         <v>2359</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
@@ -14881,7 +14878,7 @@
         <v>2345</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
@@ -14928,7 +14925,7 @@
         <v>2184</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="T118" t="s">
         <v>2171</v>
@@ -14987,7 +14984,7 @@
         <v>2398</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
@@ -15087,7 +15084,7 @@
         <v>2356</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
@@ -15184,10 +15181,10 @@
         <v>181</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S123" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
@@ -15237,7 +15234,7 @@
         <v>2193</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
@@ -15287,7 +15284,7 @@
         <v>2193</v>
       </c>
       <c r="S125" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
@@ -15334,10 +15331,10 @@
         <v>52</v>
       </c>
       <c r="R126" s="2" t="s">
+        <v>2512</v>
+      </c>
+      <c r="S126" s="2" t="s">
         <v>2513</v>
-      </c>
-      <c r="S126" s="2" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
@@ -15387,7 +15384,7 @@
         <v>2406</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
@@ -15437,7 +15434,7 @@
         <v>2195</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -15487,7 +15484,7 @@
         <v>2195</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -15537,7 +15534,7 @@
         <v>2406</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -15587,7 +15584,7 @@
         <v>2193</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -15634,10 +15631,10 @@
         <v>172</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -15684,10 +15681,10 @@
         <v>181</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -15734,10 +15731,10 @@
         <v>181</v>
       </c>
       <c r="R134" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="S134" s="2" t="s">
         <v>2517</v>
-      </c>
-      <c r="S134" s="2" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -15784,10 +15781,10 @@
         <v>181</v>
       </c>
       <c r="R135" s="2" t="s">
+        <v>2516</v>
+      </c>
+      <c r="S135" s="2" t="s">
         <v>2517</v>
-      </c>
-      <c r="S135" s="2" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -15834,7 +15831,7 @@
         <v>2345</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -15884,7 +15881,7 @@
         <v>2363</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -15934,7 +15931,7 @@
         <v>2198</v>
       </c>
       <c r="S138" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -15984,7 +15981,7 @@
         <v>2195</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -16034,7 +16031,7 @@
         <v>2406</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -16081,10 +16078,10 @@
         <v>172</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -16134,7 +16131,7 @@
         <v>2406</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -16184,7 +16181,7 @@
         <v>2196</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -16234,7 +16231,7 @@
         <v>2396</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -16281,10 +16278,10 @@
         <v>172</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -16331,10 +16328,10 @@
         <v>181</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -16381,10 +16378,10 @@
         <v>172</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -16434,7 +16431,7 @@
         <v>2363</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -16481,10 +16478,10 @@
         <v>172</v>
       </c>
       <c r="R149" s="2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="S149" s="2" t="s">
         <v>2527</v>
-      </c>
-      <c r="S149" s="2" t="s">
-        <v>2528</v>
       </c>
       <c r="T149" t="s">
         <v>2171</v>
@@ -16540,10 +16537,10 @@
         <v>181</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -16593,7 +16590,7 @@
         <v>2406</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
@@ -16643,7 +16640,7 @@
         <v>2240</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
@@ -16693,7 +16690,7 @@
         <v>2369</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
@@ -16743,7 +16740,7 @@
         <v>2356</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -16793,7 +16790,7 @@
         <v>2374</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="T155" t="s">
         <v>2171</v>
@@ -16849,10 +16846,10 @@
         <v>172</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="T156" t="s">
         <v>2171</v>
@@ -16967,10 +16964,10 @@
         <v>172</v>
       </c>
       <c r="R158" s="2" t="s">
+        <v>2531</v>
+      </c>
+      <c r="S158" s="2" t="s">
         <v>2532</v>
-      </c>
-      <c r="S158" s="2" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -17020,7 +17017,7 @@
         <v>2196</v>
       </c>
       <c r="S159" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
@@ -17070,7 +17067,7 @@
         <v>2359</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -17120,7 +17117,7 @@
         <v>2359</v>
       </c>
       <c r="S161" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -17170,7 +17167,7 @@
         <v>2414</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -17220,7 +17217,7 @@
         <v>2363</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -17270,7 +17267,7 @@
         <v>2379</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
@@ -17320,7 +17317,7 @@
         <v>2338</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -17370,7 +17367,7 @@
         <v>2341</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -17420,7 +17417,7 @@
         <v>2387</v>
       </c>
       <c r="S167" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -17467,10 +17464,10 @@
         <v>181</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="S168" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -17517,10 +17514,10 @@
         <v>589</v>
       </c>
       <c r="R169" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -17567,10 +17564,10 @@
         <v>181</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
@@ -17617,10 +17614,10 @@
         <v>172</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -17717,7 +17714,7 @@
         <v>2184</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -17767,7 +17764,7 @@
         <v>2345</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -17867,7 +17864,7 @@
         <v>2384</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
@@ -17917,7 +17914,7 @@
         <v>2343</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.25">
@@ -17964,10 +17961,10 @@
         <v>172</v>
       </c>
       <c r="R178" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
@@ -18017,7 +18014,7 @@
         <v>2242</v>
       </c>
       <c r="S179" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.25">
@@ -18064,10 +18061,10 @@
         <v>172</v>
       </c>
       <c r="R180" s="2" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="T180" t="s">
         <v>2171</v>
@@ -18173,7 +18170,7 @@
         <v>181</v>
       </c>
       <c r="R182" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="S182" s="2" t="s">
         <v>2319</v>
@@ -18226,7 +18223,7 @@
         <v>2401</v>
       </c>
       <c r="S183" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.25">
@@ -18273,10 +18270,10 @@
         <v>172</v>
       </c>
       <c r="R184" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S184" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.25">
@@ -18323,10 +18320,10 @@
         <v>172</v>
       </c>
       <c r="R185" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S185" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.25">
@@ -18373,10 +18370,10 @@
         <v>172</v>
       </c>
       <c r="R186" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S186" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.25">
@@ -18423,10 +18420,10 @@
         <v>172</v>
       </c>
       <c r="R187" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.25">
@@ -18473,7 +18470,7 @@
         <v>2211</v>
       </c>
       <c r="S188" s="2" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.25">
@@ -18520,10 +18517,10 @@
         <v>172</v>
       </c>
       <c r="R189" s="2" t="s">
+        <v>2545</v>
+      </c>
+      <c r="S189" s="2" t="s">
         <v>2546</v>
-      </c>
-      <c r="S189" s="2" t="s">
-        <v>2547</v>
       </c>
       <c r="T189" t="s">
         <v>2171</v>
@@ -18579,10 +18576,10 @@
         <v>172</v>
       </c>
       <c r="R190" s="2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="S190" s="2" t="s">
         <v>2548</v>
-      </c>
-      <c r="S190" s="2" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.25">
@@ -18632,7 +18629,7 @@
         <v>2198</v>
       </c>
       <c r="S191" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.25">
@@ -18679,10 +18676,10 @@
         <v>172</v>
       </c>
       <c r="R192" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="S192" s="2" t="s">
         <v>2550</v>
-      </c>
-      <c r="S192" s="2" t="s">
-        <v>2551</v>
       </c>
       <c r="T192" t="s">
         <v>2171</v>
@@ -18741,7 +18738,7 @@
         <v>2245</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="T193" t="s">
         <v>2171</v>
@@ -18800,7 +18797,7 @@
         <v>2415</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="T194" t="s">
         <v>2171</v>
@@ -18853,10 +18850,10 @@
         <v>727</v>
       </c>
       <c r="R195" s="2" t="s">
+        <v>2552</v>
+      </c>
+      <c r="S195" s="2" t="s">
         <v>2553</v>
-      </c>
-      <c r="S195" s="2" t="s">
-        <v>2554</v>
       </c>
       <c r="T195" t="s">
         <v>2171</v>
@@ -18909,10 +18906,10 @@
         <v>172</v>
       </c>
       <c r="R196" s="2" t="s">
+        <v>2554</v>
+      </c>
+      <c r="S196" s="2" t="s">
         <v>2555</v>
-      </c>
-      <c r="S196" s="2" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.25">
@@ -18959,10 +18956,10 @@
         <v>172</v>
       </c>
       <c r="R197" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="S197" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T197" t="s">
         <v>2171</v>
@@ -19021,10 +19018,10 @@
         <v>181</v>
       </c>
       <c r="R198" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="S198" s="2" t="s">
         <v>2557</v>
-      </c>
-      <c r="S198" s="2" t="s">
-        <v>2558</v>
       </c>
       <c r="T198" t="s">
         <v>2171</v>
@@ -19142,10 +19139,10 @@
         <v>172</v>
       </c>
       <c r="R200" s="2" t="s">
+        <v>2558</v>
+      </c>
+      <c r="S200" s="2" t="s">
         <v>2559</v>
-      </c>
-      <c r="S200" s="2" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.25">
@@ -19192,10 +19189,10 @@
         <v>52</v>
       </c>
       <c r="R201" s="2" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="S201" s="2" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="T201" t="s">
         <v>2171</v>
@@ -19310,10 +19307,10 @@
         <v>172</v>
       </c>
       <c r="R203" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="T203" t="s">
         <v>2171</v>
@@ -19369,10 +19366,10 @@
         <v>172</v>
       </c>
       <c r="R204" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="S204" s="2" t="s">
         <v>2562</v>
-      </c>
-      <c r="S204" s="2" t="s">
-        <v>2563</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.25">
@@ -19422,7 +19419,7 @@
         <v>2176</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.25">
@@ -19469,10 +19466,10 @@
         <v>172</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T206" t="s">
         <v>2171</v>
@@ -19528,7 +19525,7 @@
         <v>187</v>
       </c>
       <c r="R207" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="S207" s="2" t="s">
         <v>2262</v>
@@ -19590,7 +19587,7 @@
         <v>2217</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.25">
@@ -19640,7 +19637,7 @@
         <v>2172</v>
       </c>
       <c r="S209" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="T209" t="s">
         <v>2171</v>
@@ -19696,10 +19693,10 @@
         <v>187</v>
       </c>
       <c r="R210" s="2" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T210" t="s">
         <v>2171</v>
@@ -19755,10 +19752,10 @@
         <v>172</v>
       </c>
       <c r="R211" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="S211" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="T211" t="s">
         <v>2171</v>
@@ -19817,7 +19814,7 @@
         <v>2350</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T212" t="s">
         <v>2171</v>
@@ -19876,7 +19873,7 @@
         <v>2206</v>
       </c>
       <c r="S213" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.25">
@@ -19923,10 +19920,10 @@
         <v>187</v>
       </c>
       <c r="R214" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="S214" s="2" t="s">
         <v>2568</v>
-      </c>
-      <c r="S214" s="2" t="s">
-        <v>2569</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.25">
@@ -19976,7 +19973,7 @@
         <v>2205</v>
       </c>
       <c r="S215" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="T215" t="s">
         <v>2171</v>
@@ -20032,10 +20029,10 @@
         <v>187</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="S216" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T216" t="s">
         <v>2171</v>
@@ -20091,10 +20088,10 @@
         <v>172</v>
       </c>
       <c r="R217" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="S217" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T217" t="s">
         <v>2171</v>
@@ -20153,7 +20150,7 @@
         <v>2352</v>
       </c>
       <c r="S218" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T218" t="s">
         <v>2171</v>
@@ -20209,10 +20206,10 @@
         <v>172</v>
       </c>
       <c r="R219" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="S219" s="2" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="T219" t="s">
         <v>2171</v>
@@ -20271,7 +20268,7 @@
         <v>2352</v>
       </c>
       <c r="S220" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="T220" t="s">
         <v>2171</v>
@@ -20327,7 +20324,7 @@
         <v>187</v>
       </c>
       <c r="R221" s="2" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="S221" s="2" t="s">
         <v>2281</v>
@@ -20439,7 +20436,7 @@
         <v>2176</v>
       </c>
       <c r="S223" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="T223" t="s">
         <v>2171</v>
@@ -20498,7 +20495,7 @@
         <v>2176</v>
       </c>
       <c r="S224" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="T224" t="s">
         <v>2171</v>
@@ -20557,7 +20554,7 @@
         <v>2371</v>
       </c>
       <c r="S225" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="T225" t="s">
         <v>2171</v>
@@ -20616,7 +20613,7 @@
         <v>2352</v>
       </c>
       <c r="S226" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T226" t="s">
         <v>2171</v>
@@ -20675,7 +20672,7 @@
         <v>2352</v>
       </c>
       <c r="S227" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T227" t="s">
         <v>2171</v>
@@ -20734,7 +20731,7 @@
         <v>2350</v>
       </c>
       <c r="S228" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="T228" t="s">
         <v>2171</v>
@@ -20793,7 +20790,7 @@
         <v>2205</v>
       </c>
       <c r="S229" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T229" t="s">
         <v>2171</v>
@@ -20852,7 +20849,7 @@
         <v>2205</v>
       </c>
       <c r="S230" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="T230" t="s">
         <v>2171</v>
@@ -20911,7 +20908,7 @@
         <v>2353</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T231" t="s">
         <v>2171</v>
@@ -20970,7 +20967,7 @@
         <v>2352</v>
       </c>
       <c r="S232" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T232" t="s">
         <v>2171</v>
@@ -21029,7 +21026,7 @@
         <v>2353</v>
       </c>
       <c r="S233" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T233" t="s">
         <v>2171</v>
@@ -21088,7 +21085,7 @@
         <v>2352</v>
       </c>
       <c r="S234" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T234" t="s">
         <v>2171</v>
@@ -21144,10 +21141,10 @@
         <v>187</v>
       </c>
       <c r="R235" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="S235" s="2" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.25">
@@ -21197,7 +21194,7 @@
         <v>2217</v>
       </c>
       <c r="S236" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.25">
@@ -21306,7 +21303,7 @@
         <v>2354</v>
       </c>
       <c r="S238" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="T238" t="s">
         <v>2171</v>
@@ -21365,7 +21362,7 @@
         <v>2341</v>
       </c>
       <c r="S239" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="T239" t="s">
         <v>2171</v>
@@ -21424,7 +21421,7 @@
         <v>2242</v>
       </c>
       <c r="S240" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
@@ -21474,7 +21471,7 @@
         <v>2342</v>
       </c>
       <c r="S241" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T241" t="s">
         <v>2171</v>
@@ -21533,7 +21530,7 @@
         <v>2224</v>
       </c>
       <c r="S242" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T242" t="s">
         <v>2171</v>
@@ -21648,10 +21645,10 @@
         <v>181</v>
       </c>
       <c r="R244" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="S244" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T244" t="s">
         <v>2171</v>
@@ -21707,10 +21704,10 @@
         <v>52</v>
       </c>
       <c r="R245" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="S245" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T245" t="s">
         <v>2171</v>
@@ -21769,7 +21766,7 @@
         <v>2224</v>
       </c>
       <c r="S246" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T246" t="s">
         <v>2171</v>
@@ -21825,10 +21822,10 @@
         <v>187</v>
       </c>
       <c r="R247" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="S247" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="T247" t="s">
         <v>2171</v>
@@ -21884,7 +21881,7 @@
         <v>172</v>
       </c>
       <c r="R248" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S248" s="2" t="s">
         <v>2309</v>
@@ -21943,10 +21940,10 @@
         <v>187</v>
       </c>
       <c r="R249" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="S249" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="T249" t="s">
         <v>2171</v>
@@ -22002,10 +21999,10 @@
         <v>187</v>
       </c>
       <c r="R250" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="S250" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="T250" t="s">
         <v>2171</v>
@@ -22120,10 +22117,10 @@
         <v>187</v>
       </c>
       <c r="R252" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="S252" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T252" t="s">
         <v>2171</v>
@@ -22179,10 +22176,10 @@
         <v>187</v>
       </c>
       <c r="R253" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S253" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T253" t="s">
         <v>2171</v>
@@ -22238,10 +22235,10 @@
         <v>52</v>
       </c>
       <c r="R254" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S254" s="2" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
@@ -22291,7 +22288,7 @@
         <v>2224</v>
       </c>
       <c r="S255" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="T255" t="s">
         <v>2171</v>
@@ -22350,7 +22347,7 @@
         <v>2176</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
@@ -22397,10 +22394,10 @@
         <v>181</v>
       </c>
       <c r="R257" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="T257" t="s">
         <v>2171</v>
@@ -22456,10 +22453,10 @@
         <v>187</v>
       </c>
       <c r="R258" s="2" t="s">
+        <v>2427</v>
+      </c>
+      <c r="S258" s="2" t="s">
         <v>2428</v>
-      </c>
-      <c r="S258" s="2" t="s">
-        <v>2429</v>
       </c>
       <c r="T258" t="s">
         <v>2171</v>
@@ -22518,7 +22515,7 @@
         <v>2382</v>
       </c>
       <c r="S259" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T259" t="s">
         <v>2171</v>
@@ -22574,10 +22571,10 @@
         <v>181</v>
       </c>
       <c r="R260" s="2" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="S260" s="2" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -22686,7 +22683,7 @@
         <v>2205</v>
       </c>
       <c r="S262" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
@@ -22736,7 +22733,7 @@
         <v>2341</v>
       </c>
       <c r="S263" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
@@ -22783,10 +22780,10 @@
         <v>187</v>
       </c>
       <c r="R264" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="S264" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="T264" t="s">
         <v>2171</v>
@@ -22842,10 +22839,10 @@
         <v>172</v>
       </c>
       <c r="R265" s="2" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="S265" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="T265" t="s">
         <v>2171</v>
@@ -22901,10 +22898,10 @@
         <v>172</v>
       </c>
       <c r="R266" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="S266" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="T266" t="s">
         <v>2171</v>
@@ -22960,10 +22957,10 @@
         <v>172</v>
       </c>
       <c r="R267" s="2" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="S267" s="2" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
@@ -23013,7 +23010,7 @@
         <v>2338</v>
       </c>
       <c r="S268" s="2" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="T268" t="s">
         <v>2171</v>
@@ -23072,7 +23069,7 @@
         <v>2338</v>
       </c>
       <c r="S269" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T269" t="s">
         <v>2171</v>
@@ -23128,10 +23125,10 @@
         <v>172</v>
       </c>
       <c r="R270" s="2" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="S270" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T270" t="s">
         <v>2171</v>
@@ -23190,7 +23187,7 @@
         <v>2353</v>
       </c>
       <c r="S271" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="T271" t="s">
         <v>2171</v>
@@ -23249,7 +23246,7 @@
         <v>2338</v>
       </c>
       <c r="S272" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T272" t="s">
         <v>2171</v>
@@ -23308,7 +23305,7 @@
         <v>2371</v>
       </c>
       <c r="S273" s="2" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
@@ -23358,7 +23355,7 @@
         <v>2217</v>
       </c>
       <c r="S274" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
@@ -23408,7 +23405,7 @@
         <v>2217</v>
       </c>
       <c r="S275" s="2" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="T275" t="s">
         <v>2171</v>
@@ -23461,10 +23458,10 @@
         <v>52</v>
       </c>
       <c r="R276" s="2" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="S276" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="T276" t="s">
         <v>2171</v>
@@ -23523,7 +23520,7 @@
         <v>2217</v>
       </c>
       <c r="S277" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T277" t="s">
         <v>2171</v>
@@ -23579,7 +23576,7 @@
         <v>2244</v>
       </c>
       <c r="S278" s="2" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
@@ -23623,7 +23620,7 @@
         <v>52</v>
       </c>
       <c r="R279" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="S279" s="2" t="s">
         <v>2227</v>
@@ -23673,10 +23670,10 @@
         <v>181</v>
       </c>
       <c r="R280" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S280" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="T280" t="s">
         <v>2171</v>
@@ -23729,7 +23726,7 @@
         <v>52</v>
       </c>
       <c r="R281" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="S281" s="2" t="s">
         <v>2320</v>
@@ -23788,7 +23785,7 @@
         <v>2368</v>
       </c>
       <c r="S282" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T282" t="s">
         <v>2171</v>
@@ -23844,7 +23841,7 @@
         <v>181</v>
       </c>
       <c r="R283" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S283" s="2" t="s">
         <v>2309</v>
@@ -23906,7 +23903,7 @@
         <v>2338</v>
       </c>
       <c r="S284" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
@@ -23953,10 +23950,10 @@
         <v>52</v>
       </c>
       <c r="R285" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="S285" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T285" t="s">
         <v>2171</v>
@@ -24012,7 +24009,7 @@
         <v>2383</v>
       </c>
       <c r="S286" s="2" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
@@ -24109,7 +24106,7 @@
         <v>2217</v>
       </c>
       <c r="S288" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T288" t="s">
         <v>2171</v>
@@ -24165,7 +24162,7 @@
         <v>2206</v>
       </c>
       <c r="S289" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
@@ -24212,10 +24209,10 @@
         <v>181</v>
       </c>
       <c r="R290" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="S290" s="2" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="T290" t="s">
         <v>2171</v>
@@ -24274,7 +24271,7 @@
         <v>2341</v>
       </c>
       <c r="S291" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="T291" t="s">
         <v>2171</v>
@@ -24333,7 +24330,7 @@
         <v>2352</v>
       </c>
       <c r="S292" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
@@ -24380,10 +24377,10 @@
         <v>172</v>
       </c>
       <c r="R293" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="S293" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="T293" t="s">
         <v>2171</v>
@@ -24439,7 +24436,7 @@
         <v>187</v>
       </c>
       <c r="R294" s="2" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="S294" s="2" t="s">
         <v>2281</v>
@@ -24501,7 +24498,7 @@
         <v>2341</v>
       </c>
       <c r="S295" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="T295" t="s">
         <v>2171</v>
@@ -24560,7 +24557,7 @@
         <v>2206</v>
       </c>
       <c r="S296" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="T296" t="s">
         <v>2171</v>
@@ -24619,7 +24616,7 @@
         <v>2205</v>
       </c>
       <c r="S297" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.25">
@@ -24669,7 +24666,7 @@
         <v>2172</v>
       </c>
       <c r="S298" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.25">
@@ -24775,7 +24772,7 @@
         <v>2361</v>
       </c>
       <c r="S300" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="T300" t="s">
         <v>2171</v>
@@ -24831,7 +24828,7 @@
         <v>2205</v>
       </c>
       <c r="S301" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T301" t="s">
         <v>2171</v>
@@ -24887,10 +24884,10 @@
         <v>181</v>
       </c>
       <c r="R302" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="S302" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.25">
@@ -24937,7 +24934,7 @@
         <v>2353</v>
       </c>
       <c r="S303" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T303" t="s">
         <v>2171</v>
@@ -24996,7 +24993,7 @@
         <v>2176</v>
       </c>
       <c r="S304" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="T304" t="s">
         <v>2171</v>
@@ -25052,7 +25049,7 @@
         <v>2184</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T305" t="s">
         <v>2171</v>
@@ -25108,7 +25105,7 @@
         <v>2184</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T306" t="s">
         <v>2171</v>
@@ -25164,10 +25161,10 @@
         <v>187</v>
       </c>
       <c r="R307" s="2" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T307" t="s">
         <v>2171</v>
@@ -25282,7 +25279,7 @@
         <v>2352</v>
       </c>
       <c r="S309" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T309" t="s">
         <v>2171</v>
@@ -25338,7 +25335,7 @@
         <v>2217</v>
       </c>
       <c r="S310" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.25">
@@ -25388,7 +25385,7 @@
         <v>2361</v>
       </c>
       <c r="S311" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.25">
@@ -25438,7 +25435,7 @@
         <v>2350</v>
       </c>
       <c r="S312" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T312" t="s">
         <v>2171</v>
@@ -25497,7 +25494,7 @@
         <v>2361</v>
       </c>
       <c r="S313" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
@@ -25547,7 +25544,7 @@
         <v>2217</v>
       </c>
       <c r="S314" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T314" t="s">
         <v>2171</v>
@@ -25603,10 +25600,10 @@
         <v>187</v>
       </c>
       <c r="R315" s="2" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="S315" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.25">
@@ -25709,10 +25706,10 @@
         <v>172</v>
       </c>
       <c r="R317" s="2" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="S317" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="T317" t="s">
         <v>2171</v>
@@ -25768,10 +25765,10 @@
         <v>172</v>
       </c>
       <c r="R318" s="2" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="S318" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.25">
@@ -25821,7 +25818,7 @@
         <v>2352</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T319" t="s">
         <v>2171</v>
@@ -25880,7 +25877,7 @@
         <v>2206</v>
       </c>
       <c r="S320" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.25">
@@ -25927,7 +25924,7 @@
         <v>2368</v>
       </c>
       <c r="S321" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.25">
@@ -25977,7 +25974,7 @@
         <v>2217</v>
       </c>
       <c r="S322" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="T322" t="s">
         <v>2171</v>
@@ -26083,7 +26080,7 @@
         <v>2214</v>
       </c>
       <c r="S324" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="T324" t="s">
         <v>2171</v>
@@ -26189,7 +26186,7 @@
         <v>2361</v>
       </c>
       <c r="S326" s="2" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.25">
@@ -26236,7 +26233,7 @@
         <v>2350</v>
       </c>
       <c r="S327" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.25">
@@ -26283,10 +26280,10 @@
         <v>181</v>
       </c>
       <c r="R328" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="S328" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="T328" t="s">
         <v>2171</v>
@@ -26339,7 +26336,7 @@
         <v>52</v>
       </c>
       <c r="R329" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="S329" s="2" t="s">
         <v>2227</v>
@@ -26398,7 +26395,7 @@
         <v>2393</v>
       </c>
       <c r="S330" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="T330" t="s">
         <v>2171</v>
@@ -26457,7 +26454,7 @@
         <v>2359</v>
       </c>
       <c r="S331" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="T331" t="s">
         <v>2171</v>
@@ -26513,7 +26510,7 @@
         <v>2374</v>
       </c>
       <c r="S332" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.25">
@@ -26560,7 +26557,7 @@
         <v>2386</v>
       </c>
       <c r="S333" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.25">
@@ -26607,7 +26604,7 @@
         <v>52</v>
       </c>
       <c r="R334" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="S334" s="2" t="s">
         <v>2230</v>
@@ -26657,7 +26654,7 @@
         <v>2341</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.25">
@@ -26701,10 +26698,10 @@
         <v>52</v>
       </c>
       <c r="R336" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="S336" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="T336" t="s">
         <v>2171</v>
@@ -26757,10 +26754,10 @@
         <v>52</v>
       </c>
       <c r="R337" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="S337" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="T337" t="s">
         <v>2171</v>
@@ -26816,7 +26813,7 @@
         <v>2352</v>
       </c>
       <c r="S338" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.25">
@@ -26860,10 +26857,10 @@
         <v>52</v>
       </c>
       <c r="R339" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="S339" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="340" spans="1:22" x14ac:dyDescent="0.25">
@@ -26966,7 +26963,7 @@
         <v>2352</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="T341" t="s">
         <v>2171</v>
@@ -27019,10 +27016,10 @@
         <v>52</v>
       </c>
       <c r="R342" s="2" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="S342" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.25">
@@ -27069,7 +27066,7 @@
         <v>2185</v>
       </c>
       <c r="S343" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T343" t="s">
         <v>2171</v>
@@ -27122,10 +27119,10 @@
         <v>52</v>
       </c>
       <c r="R344" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="S344" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.25">
@@ -27169,7 +27166,7 @@
         <v>52</v>
       </c>
       <c r="R345" s="2" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="S345" s="2" t="s">
         <v>2175</v>
@@ -27216,10 +27213,10 @@
         <v>52</v>
       </c>
       <c r="R346" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="S346" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.25">
@@ -27263,10 +27260,10 @@
         <v>52</v>
       </c>
       <c r="R347" s="2" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="S347" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.25">
@@ -27310,10 +27307,10 @@
         <v>52</v>
       </c>
       <c r="R348" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.25">
@@ -27357,10 +27354,10 @@
         <v>52</v>
       </c>
       <c r="R349" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="T349" t="s">
         <v>2171</v>
@@ -27413,10 +27410,10 @@
         <v>52</v>
       </c>
       <c r="R350" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="T350" t="s">
         <v>2171</v>
@@ -27475,7 +27472,7 @@
         <v>2206</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.25">
@@ -27519,10 +27516,10 @@
         <v>52</v>
       </c>
       <c r="R352" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S352" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.25">
@@ -27566,10 +27563,10 @@
         <v>52</v>
       </c>
       <c r="R353" s="2" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="S353" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.25">
@@ -27613,10 +27610,10 @@
         <v>52</v>
       </c>
       <c r="R354" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="S354" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.25">
@@ -27660,10 +27657,10 @@
         <v>52</v>
       </c>
       <c r="R355" s="2" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="S355" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T355" t="s">
         <v>2171</v>
@@ -27719,7 +27716,7 @@
         <v>2368</v>
       </c>
       <c r="S356" s="2" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="T356" t="s">
         <v>2171</v>
@@ -27775,10 +27772,10 @@
         <v>172</v>
       </c>
       <c r="R357" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="S357" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.25">
@@ -27822,10 +27819,10 @@
         <v>52</v>
       </c>
       <c r="R358" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="S358" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.25">
@@ -27872,7 +27869,7 @@
         <v>187</v>
       </c>
       <c r="R359" s="2" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="S359" s="2" t="s">
         <v>2228</v>
@@ -27931,7 +27928,7 @@
         <v>2350</v>
       </c>
       <c r="S360" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.25">
@@ -27978,7 +27975,7 @@
         <v>2217</v>
       </c>
       <c r="S361" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.25">
@@ -28025,7 +28022,7 @@
         <v>172</v>
       </c>
       <c r="R362" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="S362" s="2" t="s">
         <v>2280</v>
@@ -28081,10 +28078,10 @@
         <v>52</v>
       </c>
       <c r="R363" s="2" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="S363" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.25">
@@ -28131,7 +28128,7 @@
         <v>187</v>
       </c>
       <c r="R364" s="2" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="S364" s="2" t="s">
         <v>2320</v>
@@ -28190,7 +28187,7 @@
         <v>2206</v>
       </c>
       <c r="S365" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.25">
@@ -28237,10 +28234,10 @@
         <v>172</v>
       </c>
       <c r="R366" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="S366" s="2" t="s">
         <v>2607</v>
-      </c>
-      <c r="S366" s="2" t="s">
-        <v>2608</v>
       </c>
       <c r="T366" t="s">
         <v>2171</v>
@@ -28296,7 +28293,7 @@
         <v>2352</v>
       </c>
       <c r="S367" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.25">
@@ -28346,7 +28343,7 @@
         <v>2346</v>
       </c>
       <c r="S368" s="2" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="T368" t="s">
         <v>2171</v>
@@ -28399,10 +28396,10 @@
         <v>52</v>
       </c>
       <c r="R369" s="2" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="S369" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="T369" t="s">
         <v>2171</v>
@@ -28458,7 +28455,7 @@
         <v>2352</v>
       </c>
       <c r="S370" s="2" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.25">
@@ -28508,7 +28505,7 @@
         <v>2374</v>
       </c>
       <c r="S371" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.25">
@@ -28555,10 +28552,10 @@
         <v>172</v>
       </c>
       <c r="R372" s="2" t="s">
+        <v>2610</v>
+      </c>
+      <c r="S372" s="2" t="s">
         <v>2611</v>
-      </c>
-      <c r="S372" s="2" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.25">
@@ -28602,10 +28599,10 @@
         <v>52</v>
       </c>
       <c r="R373" s="2" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="S373" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.25">
@@ -28655,7 +28652,7 @@
         <v>2241</v>
       </c>
       <c r="S374" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.25">
@@ -28699,10 +28696,10 @@
         <v>52</v>
       </c>
       <c r="R375" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="S375" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.25">
@@ -28746,7 +28743,7 @@
         <v>52</v>
       </c>
       <c r="R376" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="S376" s="2" t="s">
         <v>2297</v>
@@ -28805,7 +28802,7 @@
         <v>2355</v>
       </c>
       <c r="S377" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.25">
@@ -28852,7 +28849,7 @@
         <v>2341</v>
       </c>
       <c r="S378" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="T378" t="s">
         <v>2171</v>
@@ -28908,7 +28905,7 @@
         <v>2393</v>
       </c>
       <c r="S379" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.25">
@@ -28955,10 +28952,10 @@
         <v>172</v>
       </c>
       <c r="R380" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S380" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.25">
@@ -29008,7 +29005,7 @@
         <v>2393</v>
       </c>
       <c r="S381" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.25">
@@ -29058,7 +29055,7 @@
         <v>2193</v>
       </c>
       <c r="S382" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.25">
@@ -29108,7 +29105,7 @@
         <v>2216</v>
       </c>
       <c r="S383" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.25">
@@ -29158,7 +29155,7 @@
         <v>2379</v>
       </c>
       <c r="S384" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.25">
@@ -29208,7 +29205,7 @@
         <v>2396</v>
       </c>
       <c r="S385" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.25">
@@ -29255,10 +29252,10 @@
         <v>52</v>
       </c>
       <c r="R386" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="S386" s="2" t="s">
         <v>2616</v>
-      </c>
-      <c r="S386" s="2" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.25">
@@ -29305,10 +29302,10 @@
         <v>172</v>
       </c>
       <c r="R387" s="2" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="S387" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="T387" t="s">
         <v>2171</v>
@@ -29364,7 +29361,7 @@
         <v>172</v>
       </c>
       <c r="R388" s="2" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="S388" s="2" t="s">
         <v>2269</v>
@@ -29417,7 +29414,7 @@
         <v>2397</v>
       </c>
       <c r="S389" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.25">
@@ -29464,10 +29461,10 @@
         <v>181</v>
       </c>
       <c r="R390" s="2" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="S390" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="T390" t="s">
         <v>2171</v>
@@ -29523,10 +29520,10 @@
         <v>52</v>
       </c>
       <c r="R391" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="S391" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.25">
@@ -29576,7 +29573,7 @@
         <v>2198</v>
       </c>
       <c r="S392" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.25">
@@ -29623,7 +29620,7 @@
         <v>52</v>
       </c>
       <c r="R393" s="2" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="S393" s="2" t="s">
         <v>2269</v>
@@ -29673,7 +29670,7 @@
         <v>172</v>
       </c>
       <c r="R394" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="S394" s="2" t="s">
         <v>2297</v>
@@ -29726,7 +29723,7 @@
         <v>2397</v>
       </c>
       <c r="S395" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.25">
@@ -29773,10 +29770,10 @@
         <v>172</v>
       </c>
       <c r="R396" s="2" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="S396" s="2" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="T396" t="s">
         <v>2171</v>
@@ -29832,10 +29829,10 @@
         <v>172</v>
       </c>
       <c r="R397" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="S397" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="T397" t="s">
         <v>2171</v>
@@ -29891,7 +29888,7 @@
         <v>172</v>
       </c>
       <c r="R398" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="S398" s="2" t="s">
         <v>2319</v>
@@ -29944,7 +29941,7 @@
         <v>2397</v>
       </c>
       <c r="S399" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.25">
@@ -29991,7 +29988,7 @@
         <v>2245</v>
       </c>
       <c r="S400" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="T400" t="s">
         <v>2171</v>
@@ -30047,7 +30044,7 @@
         <v>52</v>
       </c>
       <c r="R401" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="S401" s="2" t="s">
         <v>2269</v>
@@ -30097,10 +30094,10 @@
         <v>52</v>
       </c>
       <c r="R402" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="S402" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.25">
@@ -30147,10 +30144,10 @@
         <v>52</v>
       </c>
       <c r="R403" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="S403" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.25">
@@ -30197,10 +30194,10 @@
         <v>172</v>
       </c>
       <c r="R404" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="S404" s="2" t="s">
         <v>2625</v>
-      </c>
-      <c r="S404" s="2" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.25">
@@ -30250,7 +30247,7 @@
         <v>2179</v>
       </c>
       <c r="S405" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.25">
@@ -30300,7 +30297,7 @@
         <v>2179</v>
       </c>
       <c r="S406" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.25">
@@ -30347,10 +30344,10 @@
         <v>52</v>
       </c>
       <c r="R407" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="S407" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.25">
@@ -30453,7 +30450,7 @@
         <v>181</v>
       </c>
       <c r="R409" s="2" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="S409" s="2" t="s">
         <v>2292</v>
@@ -30515,7 +30512,7 @@
         <v>2396</v>
       </c>
       <c r="S410" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.25">
@@ -30565,7 +30562,7 @@
         <v>2396</v>
       </c>
       <c r="S411" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.25">
@@ -30612,10 +30609,10 @@
         <v>187</v>
       </c>
       <c r="R412" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="S412" s="2" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.25">
@@ -30665,7 +30662,7 @@
         <v>2216</v>
       </c>
       <c r="S413" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.25">
@@ -30712,10 +30709,10 @@
         <v>187</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="S414" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.25">
@@ -30762,10 +30759,10 @@
         <v>52</v>
       </c>
       <c r="R415" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S415" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.25">
@@ -30815,7 +30812,7 @@
         <v>2374</v>
       </c>
       <c r="S416" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.25">
@@ -30865,7 +30862,7 @@
         <v>2374</v>
       </c>
       <c r="S417" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.25">
@@ -30915,7 +30912,7 @@
         <v>2216</v>
       </c>
       <c r="S418" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.25">
@@ -30965,7 +30962,7 @@
         <v>2374</v>
       </c>
       <c r="S419" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.25">
@@ -31015,7 +31012,7 @@
         <v>2216</v>
       </c>
       <c r="S420" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.25">
@@ -31065,7 +31062,7 @@
         <v>2216</v>
       </c>
       <c r="S421" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.25">
@@ -31112,10 +31109,10 @@
         <v>52</v>
       </c>
       <c r="R422" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="S422" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.25">
@@ -31165,7 +31162,7 @@
         <v>2374</v>
       </c>
       <c r="S423" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.25">
@@ -31212,10 +31209,10 @@
         <v>181</v>
       </c>
       <c r="R424" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="S424" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="T424" t="s">
         <v>2171</v>
@@ -31274,7 +31271,7 @@
         <v>2400</v>
       </c>
       <c r="S425" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="T425" t="s">
         <v>2171</v>
@@ -31333,7 +31330,7 @@
         <v>2359</v>
       </c>
       <c r="S426" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="T426" t="s">
         <v>2171</v>
@@ -31389,10 +31386,10 @@
         <v>172</v>
       </c>
       <c r="R427" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="S427" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.25">
@@ -31436,10 +31433,10 @@
         <v>172</v>
       </c>
       <c r="R428" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="S428" s="2" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.25">
@@ -31483,10 +31480,10 @@
         <v>172</v>
       </c>
       <c r="R429" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="S429" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.25">
@@ -31536,7 +31533,7 @@
         <v>2387</v>
       </c>
       <c r="S430" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.25">
@@ -31583,10 +31580,10 @@
         <v>172</v>
       </c>
       <c r="R431" s="2" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S431" s="2" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="T431" t="s">
         <v>2171</v>
@@ -31642,10 +31639,10 @@
         <v>172</v>
       </c>
       <c r="R432" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="S432" s="2" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.25">
@@ -31692,10 +31689,10 @@
         <v>172</v>
       </c>
       <c r="R433" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="S433" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.25">
@@ -31742,10 +31739,10 @@
         <v>187</v>
       </c>
       <c r="R434" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="S434" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="T434" t="s">
         <v>2171</v>
@@ -31804,7 +31801,7 @@
         <v>2211</v>
       </c>
       <c r="S435" s="2" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.25">
@@ -31854,10 +31851,10 @@
         <v>187</v>
       </c>
       <c r="R436" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="S436" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.25">
@@ -31907,10 +31904,10 @@
         <v>187</v>
       </c>
       <c r="R437" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="S437" s="2" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.25">
@@ -31960,10 +31957,10 @@
         <v>172</v>
       </c>
       <c r="R438" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="S438" s="2" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="T438" t="s">
         <v>2171</v>
@@ -32019,7 +32016,7 @@
         <v>2341</v>
       </c>
       <c r="S439" s="2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.25">
@@ -32063,10 +32060,10 @@
         <v>172</v>
       </c>
       <c r="R440" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="S440" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.25">
@@ -32113,7 +32110,7 @@
         <v>2343</v>
       </c>
       <c r="S441" s="2" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.25">
@@ -32213,7 +32210,7 @@
         <v>2363</v>
       </c>
       <c r="S443" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.25">
@@ -32263,7 +32260,7 @@
         <v>2415</v>
       </c>
       <c r="S444" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.25">
@@ -32313,7 +32310,7 @@
         <v>2363</v>
       </c>
       <c r="S445" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.25">
@@ -32363,7 +32360,7 @@
         <v>2379</v>
       </c>
       <c r="S446" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.25">
@@ -32463,7 +32460,7 @@
         <v>2363</v>
       </c>
       <c r="S448" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.25">
@@ -32563,7 +32560,7 @@
         <v>2192</v>
       </c>
       <c r="S450" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.25">
@@ -32613,7 +32610,7 @@
         <v>2198</v>
       </c>
       <c r="S451" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
@@ -32663,7 +32660,7 @@
         <v>2183</v>
       </c>
       <c r="S452" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
@@ -32710,10 +32707,10 @@
         <v>181</v>
       </c>
       <c r="R453" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S453" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.25">
@@ -32760,10 +32757,10 @@
         <v>181</v>
       </c>
       <c r="R454" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S454" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.25">
@@ -32813,7 +32810,7 @@
         <v>2363</v>
       </c>
       <c r="S455" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.25">
@@ -32863,7 +32860,7 @@
         <v>2406</v>
       </c>
       <c r="S456" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.25">
@@ -32913,7 +32910,7 @@
         <v>2407</v>
       </c>
       <c r="S457" s="2" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
@@ -32960,10 +32957,10 @@
         <v>172</v>
       </c>
       <c r="R458" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S458" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.25">
@@ -33010,10 +33007,10 @@
         <v>172</v>
       </c>
       <c r="R459" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="S459" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
@@ -33060,10 +33057,10 @@
         <v>172</v>
       </c>
       <c r="R460" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S460" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
@@ -33113,7 +33110,7 @@
         <v>2183</v>
       </c>
       <c r="S461" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.25">
@@ -33163,7 +33160,7 @@
         <v>2198</v>
       </c>
       <c r="S462" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
@@ -33213,7 +33210,7 @@
         <v>2400</v>
       </c>
       <c r="S463" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
@@ -33263,7 +33260,7 @@
         <v>2400</v>
       </c>
       <c r="S464" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
@@ -33313,7 +33310,7 @@
         <v>2400</v>
       </c>
       <c r="S465" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
@@ -33363,7 +33360,7 @@
         <v>2400</v>
       </c>
       <c r="S466" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
@@ -33413,7 +33410,7 @@
         <v>2400</v>
       </c>
       <c r="S467" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.25">
@@ -33463,7 +33460,7 @@
         <v>2245</v>
       </c>
       <c r="S468" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
@@ -33513,7 +33510,7 @@
         <v>2196</v>
       </c>
       <c r="S469" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
@@ -33563,7 +33560,7 @@
         <v>2196</v>
       </c>
       <c r="S470" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.25">
@@ -33613,7 +33610,7 @@
         <v>2363</v>
       </c>
       <c r="S471" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
@@ -33663,7 +33660,7 @@
         <v>2363</v>
       </c>
       <c r="S472" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
@@ -33713,7 +33710,7 @@
         <v>2196</v>
       </c>
       <c r="S473" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.25">
@@ -33763,7 +33760,7 @@
         <v>2363</v>
       </c>
       <c r="S474" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
@@ -33813,7 +33810,7 @@
         <v>2363</v>
       </c>
       <c r="S475" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
@@ -33863,7 +33860,7 @@
         <v>2196</v>
       </c>
       <c r="S476" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.25">
@@ -33913,7 +33910,7 @@
         <v>2220</v>
       </c>
       <c r="S477" s="2" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
@@ -33963,7 +33960,7 @@
         <v>2196</v>
       </c>
       <c r="S478" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
@@ -34013,7 +34010,7 @@
         <v>2196</v>
       </c>
       <c r="S479" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
@@ -34060,10 +34057,10 @@
         <v>172</v>
       </c>
       <c r="R480" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S480" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.25">
@@ -34113,7 +34110,7 @@
         <v>2396</v>
       </c>
       <c r="S481" s="2" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="T481" t="s">
         <v>2171</v>
@@ -34225,10 +34222,10 @@
         <v>52</v>
       </c>
       <c r="R483" s="2" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="S483" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.25">
@@ -34278,7 +34275,7 @@
         <v>2413</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="T484" t="s">
         <v>2171</v>
@@ -34334,10 +34331,10 @@
         <v>172</v>
       </c>
       <c r="R485" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="S485" s="2" t="s">
         <v>2645</v>
-      </c>
-      <c r="S485" s="2" t="s">
-        <v>2646</v>
       </c>
       <c r="T485" t="s">
         <v>2171</v>
@@ -34396,7 +34393,7 @@
         <v>2359</v>
       </c>
       <c r="S486" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.25">
@@ -34443,7 +34440,7 @@
         <v>52</v>
       </c>
       <c r="R487" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="S487" s="2" t="s">
         <v>2298</v>
@@ -34496,7 +34493,7 @@
         <v>2216</v>
       </c>
       <c r="S488" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.25">
@@ -34543,7 +34540,7 @@
         <v>52</v>
       </c>
       <c r="R489" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="S489" s="2" t="s">
         <v>2298</v>
@@ -34596,7 +34593,7 @@
         <v>2379</v>
       </c>
       <c r="S490" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.25">
@@ -34643,10 +34640,10 @@
         <v>52</v>
       </c>
       <c r="R491" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="S491" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.25">
@@ -34696,7 +34693,7 @@
         <v>2415</v>
       </c>
       <c r="S492" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.25">
@@ -34746,7 +34743,7 @@
         <v>2414</v>
       </c>
       <c r="S493" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.25">
@@ -34843,7 +34840,7 @@
         <v>2247</v>
       </c>
       <c r="S495" s="2" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.25">
@@ -34884,10 +34881,10 @@
         <v>172</v>
       </c>
       <c r="R496" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="S496" s="2" t="s">
         <v>2489</v>
-      </c>
-      <c r="S496" s="2" t="s">
-        <v>2490</v>
       </c>
       <c r="T496" t="s">
         <v>2171</v>
@@ -34937,10 +34934,10 @@
         <v>172</v>
       </c>
       <c r="R497" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="S497" s="2" t="s">
         <v>2489</v>
-      </c>
-      <c r="S497" s="2" t="s">
-        <v>2490</v>
       </c>
       <c r="T497" t="s">
         <v>2171</v>
@@ -34990,10 +34987,10 @@
         <v>172</v>
       </c>
       <c r="R498" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S498" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.25">
@@ -35037,7 +35034,7 @@
         <v>2375</v>
       </c>
       <c r="S499" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="T499" t="s">
         <v>2171</v>
@@ -35087,10 +35084,10 @@
         <v>172</v>
       </c>
       <c r="R500" s="2" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="S500" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="T500" t="s">
         <v>2171</v>
@@ -35140,10 +35137,10 @@
         <v>172</v>
       </c>
       <c r="R501" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="S501" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.25">
@@ -35187,7 +35184,7 @@
         <v>2358</v>
       </c>
       <c r="S502" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.25">
@@ -35231,7 +35228,7 @@
         <v>2358</v>
       </c>
       <c r="S503" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.25">
@@ -35272,10 +35269,10 @@
         <v>172</v>
       </c>
       <c r="R504" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="S504" s="2" t="s">
         <v>2649</v>
-      </c>
-      <c r="S504" s="2" t="s">
-        <v>2650</v>
       </c>
       <c r="T504" t="s">
         <v>2171</v>
@@ -35325,10 +35322,10 @@
         <v>172</v>
       </c>
       <c r="R505" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="S505" s="2" t="s">
         <v>2651</v>
-      </c>
-      <c r="S505" s="2" t="s">
-        <v>2652</v>
       </c>
       <c r="T505" t="s">
         <v>2171</v>
@@ -35378,10 +35375,10 @@
         <v>172</v>
       </c>
       <c r="R506" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="S506" s="2" t="s">
         <v>2653</v>
-      </c>
-      <c r="S506" s="2" t="s">
-        <v>2654</v>
       </c>
       <c r="T506" t="s">
         <v>2171</v>
@@ -35431,10 +35428,10 @@
         <v>172</v>
       </c>
       <c r="R507" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="S507" s="2" t="s">
         <v>2655</v>
-      </c>
-      <c r="S507" s="2" t="s">
-        <v>2656</v>
       </c>
       <c r="T507" t="s">
         <v>2171</v>
@@ -35484,10 +35481,10 @@
         <v>172</v>
       </c>
       <c r="R508" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="S508" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="T508" t="s">
         <v>2171</v>
@@ -35537,10 +35534,10 @@
         <v>172</v>
       </c>
       <c r="R509" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="S509" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="T509" t="s">
         <v>2171</v>
@@ -35593,7 +35590,7 @@
         <v>2405</v>
       </c>
       <c r="S510" s="2" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="T510" t="s">
         <v>2171</v>
@@ -35643,10 +35640,10 @@
         <v>52</v>
       </c>
       <c r="R511" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="S511" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="T511" t="s">
         <v>2171</v>
@@ -35696,10 +35693,10 @@
         <v>52</v>
       </c>
       <c r="R512" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="S512" s="2" t="s">
         <v>2660</v>
-      </c>
-      <c r="S512" s="2" t="s">
-        <v>2661</v>
       </c>
       <c r="T512" t="s">
         <v>2171</v>
@@ -35749,7 +35746,7 @@
         <v>2219</v>
       </c>
       <c r="S513" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="T513" t="s">
         <v>2171</v>
@@ -35799,10 +35796,10 @@
         <v>52</v>
       </c>
       <c r="R514" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="S514" s="2" t="s">
         <v>2663</v>
-      </c>
-      <c r="S514" s="2" t="s">
-        <v>2664</v>
       </c>
       <c r="T514" t="s">
         <v>2171</v>
@@ -35852,7 +35849,7 @@
         <v>2393</v>
       </c>
       <c r="S515" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="T515" t="s">
         <v>2171</v>
@@ -35902,10 +35899,10 @@
         <v>172</v>
       </c>
       <c r="R516" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="S516" s="2" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="T516" t="s">
         <v>2171</v>
@@ -36008,10 +36005,10 @@
         <v>52</v>
       </c>
       <c r="R518" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="S518" s="2" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="T518" t="s">
         <v>2171</v>
@@ -36061,10 +36058,10 @@
         <v>172</v>
       </c>
       <c r="R519" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="S519" s="2" t="s">
         <v>2668</v>
-      </c>
-      <c r="S519" s="2" t="s">
-        <v>2669</v>
       </c>
       <c r="T519" t="s">
         <v>2171</v>
@@ -36111,10 +36108,10 @@
         <v>52</v>
       </c>
       <c r="R520" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="S520" s="2" t="s">
         <v>2670</v>
-      </c>
-      <c r="S520" s="2" t="s">
-        <v>2671</v>
       </c>
       <c r="T520" t="s">
         <v>2171</v>
@@ -36217,10 +36214,10 @@
         <v>187</v>
       </c>
       <c r="R522" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="S522" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="T522" t="s">
         <v>2171</v>
@@ -36270,7 +36267,7 @@
         <v>2355</v>
       </c>
       <c r="S523" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="T523" t="s">
         <v>2171</v>
@@ -36317,7 +36314,7 @@
         <v>172</v>
       </c>
       <c r="R524" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="S524" s="2" t="s">
         <v>2228</v>
@@ -36370,7 +36367,7 @@
         <v>2393</v>
       </c>
       <c r="S525" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="T525" t="s">
         <v>2171</v>
@@ -36423,7 +36420,7 @@
         <v>2397</v>
       </c>
       <c r="S526" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="T526" t="s">
         <v>2171</v>
@@ -36473,7 +36470,7 @@
         <v>2374</v>
       </c>
       <c r="S527" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="T527" t="s">
         <v>2171</v>
@@ -36526,7 +36523,7 @@
         <v>2356</v>
       </c>
       <c r="S528" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="T528" t="s">
         <v>2171</v>
@@ -36576,10 +36573,10 @@
         <v>172</v>
       </c>
       <c r="R529" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S529" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="T529" t="s">
         <v>2171</v>
@@ -36629,7 +36626,7 @@
         <v>2179</v>
       </c>
       <c r="S530" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="T530" t="s">
         <v>2171</v>
@@ -36682,7 +36679,7 @@
         <v>2180</v>
       </c>
       <c r="S531" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="T531" t="s">
         <v>2171</v>
@@ -36732,10 +36729,10 @@
         <v>172</v>
       </c>
       <c r="R532" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="S532" s="2" t="s">
         <v>2678</v>
-      </c>
-      <c r="S532" s="2" t="s">
-        <v>2679</v>
       </c>
       <c r="T532" t="s">
         <v>2171</v>
@@ -36785,10 +36782,10 @@
         <v>172</v>
       </c>
       <c r="R533" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="S533" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T533" t="s">
         <v>2171</v>
@@ -36838,10 +36835,10 @@
         <v>172</v>
       </c>
       <c r="R534" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="S534" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T534" t="s">
         <v>2171</v>
@@ -36894,7 +36891,7 @@
         <v>2415</v>
       </c>
       <c r="S535" s="2" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="T535" t="s">
         <v>2171</v>
@@ -36944,10 +36941,10 @@
         <v>172</v>
       </c>
       <c r="R536" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S536" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="T536" t="s">
         <v>2171</v>
@@ -37000,7 +36997,7 @@
         <v>2180</v>
       </c>
       <c r="S537" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="T537" t="s">
         <v>2171</v>
@@ -37053,7 +37050,7 @@
         <v>2180</v>
       </c>
       <c r="S538" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="T538" t="s">
         <v>2171</v>
@@ -37106,7 +37103,7 @@
         <v>2338</v>
       </c>
       <c r="S539" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="T539" t="s">
         <v>2171</v>
@@ -37153,10 +37150,10 @@
         <v>52</v>
       </c>
       <c r="R540" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="S540" s="2" t="s">
         <v>2682</v>
-      </c>
-      <c r="S540" s="2" t="s">
-        <v>2683</v>
       </c>
       <c r="T540" t="s">
         <v>2171</v>
@@ -37209,7 +37206,7 @@
         <v>2342</v>
       </c>
       <c r="S541" s="2" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="T541" t="s">
         <v>2171</v>
@@ -37259,10 +37256,10 @@
         <v>172</v>
       </c>
       <c r="R542" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="S542" s="2" t="s">
         <v>2684</v>
-      </c>
-      <c r="S542" s="2" t="s">
-        <v>2685</v>
       </c>
       <c r="T542" t="s">
         <v>2171</v>
@@ -37312,10 +37309,10 @@
         <v>172</v>
       </c>
       <c r="R543" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S543" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="T543" t="s">
         <v>2171</v>
@@ -37365,10 +37362,10 @@
         <v>172</v>
       </c>
       <c r="R544" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="S544" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="T544" t="s">
         <v>2171</v>
@@ -37418,10 +37415,10 @@
         <v>52</v>
       </c>
       <c r="R545" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="S545" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="T545" t="s">
         <v>2171</v>
@@ -37471,10 +37468,10 @@
         <v>172</v>
       </c>
       <c r="R546" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="S546" s="2" t="s">
         <v>2688</v>
-      </c>
-      <c r="S546" s="2" t="s">
-        <v>2689</v>
       </c>
       <c r="T546" t="s">
         <v>2171</v>
@@ -37521,10 +37518,10 @@
         <v>52</v>
       </c>
       <c r="R547" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="S547" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="T547" t="s">
         <v>2171</v>
@@ -37571,10 +37568,10 @@
         <v>181</v>
       </c>
       <c r="R548" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="S548" s="2" t="s">
         <v>2691</v>
-      </c>
-      <c r="S548" s="2" t="s">
-        <v>2692</v>
       </c>
       <c r="T548" t="s">
         <v>2171</v>
@@ -37627,7 +37624,7 @@
         <v>2393</v>
       </c>
       <c r="S549" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="T549" t="s">
         <v>2171</v>
@@ -37680,10 +37677,10 @@
         <v>172</v>
       </c>
       <c r="R550" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="S550" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="T550" t="s">
         <v>2171</v>
@@ -37736,7 +37733,7 @@
         <v>2193</v>
       </c>
       <c r="S551" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="T551" t="s">
         <v>2171</v>
@@ -37786,10 +37783,10 @@
         <v>172</v>
       </c>
       <c r="R552" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="S552" s="2" t="s">
         <v>2694</v>
-      </c>
-      <c r="S552" s="2" t="s">
-        <v>2695</v>
       </c>
       <c r="T552" t="s">
         <v>2171</v>
@@ -37839,10 +37836,10 @@
         <v>52</v>
       </c>
       <c r="R553" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="S553" s="2" t="s">
         <v>2696</v>
-      </c>
-      <c r="S553" s="2" t="s">
-        <v>2697</v>
       </c>
       <c r="T553" t="s">
         <v>2171</v>
@@ -37892,10 +37889,10 @@
         <v>172</v>
       </c>
       <c r="R554" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="S554" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="T554" t="s">
         <v>2171</v>
@@ -37945,10 +37942,10 @@
         <v>181</v>
       </c>
       <c r="R555" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="S555" s="2" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="T555" t="s">
         <v>2171</v>
@@ -38001,7 +37998,7 @@
         <v>2374</v>
       </c>
       <c r="S556" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="T556" t="s">
         <v>2171</v>
@@ -38051,10 +38048,10 @@
         <v>181</v>
       </c>
       <c r="R557" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="S557" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="T557" t="s">
         <v>2171</v>
@@ -38107,7 +38104,7 @@
         <v>2374</v>
       </c>
       <c r="S558" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="T558" t="s">
         <v>2171</v>
@@ -38166,7 +38163,7 @@
         <v>2374</v>
       </c>
       <c r="S559" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="T559" t="s">
         <v>2171</v>
@@ -38216,7 +38213,7 @@
         <v>2400</v>
       </c>
       <c r="S560" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="T560" t="s">
         <v>2171</v>
@@ -38272,10 +38269,10 @@
         <v>172</v>
       </c>
       <c r="R561" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="S561" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="T561" t="s">
         <v>2171</v>
@@ -38372,10 +38369,10 @@
         <v>172</v>
       </c>
       <c r="R563" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="S563" s="2" t="s">
         <v>2700</v>
-      </c>
-      <c r="S563" s="2" t="s">
-        <v>2701</v>
       </c>
       <c r="T563" t="s">
         <v>2171</v>
@@ -38478,10 +38475,10 @@
         <v>172</v>
       </c>
       <c r="R565" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S565" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="T565" t="s">
         <v>2171</v>
@@ -38531,7 +38528,7 @@
         <v>172</v>
       </c>
       <c r="R566" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S566" s="2" t="s">
         <v>2321</v>
@@ -38584,10 +38581,10 @@
         <v>172</v>
       </c>
       <c r="R567" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="S567" s="2" t="s">
         <v>2702</v>
-      </c>
-      <c r="S567" s="2" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
@@ -38684,7 +38681,7 @@
         <v>2195</v>
       </c>
       <c r="S569" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="T569" t="s">
         <v>2171</v>
@@ -38734,10 +38731,10 @@
         <v>172</v>
       </c>
       <c r="R570" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="S570" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="T570" t="s">
         <v>2171</v>
@@ -38790,7 +38787,7 @@
         <v>2191</v>
       </c>
       <c r="S571" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="T571" t="s">
         <v>2171</v>
@@ -38840,10 +38837,10 @@
         <v>172</v>
       </c>
       <c r="R572" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="S572" s="2" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="T572" t="s">
         <v>2171</v>
@@ -38893,10 +38890,10 @@
         <v>181</v>
       </c>
       <c r="R573" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="S573" s="2" t="s">
         <v>2706</v>
-      </c>
-      <c r="S573" s="2" t="s">
-        <v>2707</v>
       </c>
       <c r="T573" t="s">
         <v>2171</v>
@@ -38946,10 +38943,10 @@
         <v>172</v>
       </c>
       <c r="R574" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S574" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="T574" t="s">
         <v>2171</v>
@@ -39158,10 +39155,10 @@
         <v>52</v>
       </c>
       <c r="R578" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="S578" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="T578" t="s">
         <v>2171</v>
@@ -39211,10 +39208,10 @@
         <v>172</v>
       </c>
       <c r="R579" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="S579" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="T579" t="s">
         <v>2171</v>
@@ -39264,10 +39261,10 @@
         <v>172</v>
       </c>
       <c r="R580" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S580" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="T580" t="s">
         <v>2171</v>
@@ -39317,10 +39314,10 @@
         <v>172</v>
       </c>
       <c r="R581" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="S581" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="T581" t="s">
         <v>2171</v>
@@ -39367,10 +39364,10 @@
         <v>52</v>
       </c>
       <c r="R582" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="S582" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="T582" t="s">
         <v>2171</v>
@@ -39420,7 +39417,7 @@
         <v>2181</v>
       </c>
       <c r="S583" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="T583" t="s">
         <v>2171</v>
@@ -39470,7 +39467,7 @@
         <v>2358</v>
       </c>
       <c r="S584" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="T584" t="s">
         <v>2171</v>
@@ -39520,10 +39517,10 @@
         <v>172</v>
       </c>
       <c r="R585" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="S585" s="2" t="s">
         <v>2711</v>
-      </c>
-      <c r="S585" s="2" t="s">
-        <v>2712</v>
       </c>
       <c r="T585" t="s">
         <v>2171</v>
@@ -39573,10 +39570,10 @@
         <v>172</v>
       </c>
       <c r="R586" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="S586" s="2" t="s">
         <v>2711</v>
-      </c>
-      <c r="S586" s="2" t="s">
-        <v>2712</v>
       </c>
       <c r="T586" t="s">
         <v>2171</v>
@@ -39626,10 +39623,10 @@
         <v>172</v>
       </c>
       <c r="R587" s="2" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="S587" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="T587" t="s">
         <v>2171</v>
@@ -39676,10 +39673,10 @@
         <v>52</v>
       </c>
       <c r="R588" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="S588" s="2" t="s">
         <v>2713</v>
-      </c>
-      <c r="S588" s="2" t="s">
-        <v>2714</v>
       </c>
       <c r="T588" t="s">
         <v>2171</v>
@@ -39732,7 +39729,7 @@
         <v>2354</v>
       </c>
       <c r="S589" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.25">
@@ -39773,10 +39770,10 @@
         <v>172</v>
       </c>
       <c r="R590" s="2" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="S590" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="T590" t="s">
         <v>2171</v>
@@ -39826,10 +39823,10 @@
         <v>52</v>
       </c>
       <c r="R591" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="S591" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="T591" t="s">
         <v>2171</v>
@@ -39882,7 +39879,7 @@
         <v>2208</v>
       </c>
       <c r="S592" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="T592" t="s">
         <v>2171</v>
@@ -39932,10 +39929,10 @@
         <v>172</v>
       </c>
       <c r="R593" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="S593" s="2" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="T593" t="s">
         <v>2171</v>
@@ -39985,10 +39982,10 @@
         <v>172</v>
       </c>
       <c r="R594" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S594" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="T594" t="s">
         <v>2171</v>
@@ -40038,10 +40035,10 @@
         <v>172</v>
       </c>
       <c r="R595" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="S595" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T595" t="s">
         <v>2171</v>
@@ -40094,7 +40091,7 @@
         <v>2193</v>
       </c>
       <c r="S596" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T596" t="s">
         <v>2171</v>
@@ -40141,10 +40138,10 @@
         <v>52</v>
       </c>
       <c r="R597" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="S597" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="T597" t="s">
         <v>2171</v>
@@ -40200,10 +40197,10 @@
         <v>172</v>
       </c>
       <c r="R598" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="S598" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="T598" t="s">
         <v>2171</v>
@@ -40253,7 +40250,7 @@
         <v>2348</v>
       </c>
       <c r="S599" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="T599" t="s">
         <v>2171</v>
@@ -40303,7 +40300,7 @@
         <v>2374</v>
       </c>
       <c r="S600" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="T600" t="s">
         <v>2171</v>
@@ -40406,7 +40403,7 @@
         <v>2348</v>
       </c>
       <c r="S602" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="T602" t="s">
         <v>2171</v>
@@ -40459,7 +40456,7 @@
         <v>2412</v>
       </c>
       <c r="S603" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="T603" t="s">
         <v>2171</v>
@@ -40512,7 +40509,7 @@
         <v>2412</v>
       </c>
       <c r="S604" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="T604" t="s">
         <v>2171</v>
@@ -40730,7 +40727,7 @@
         <v>2366</v>
       </c>
       <c r="S608" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="T608" t="s">
         <v>2171</v>
@@ -40786,7 +40783,7 @@
         <v>2366</v>
       </c>
       <c r="S609" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="T609" t="s">
         <v>2171</v>
@@ -40842,7 +40839,7 @@
         <v>2366</v>
       </c>
       <c r="S610" s="2" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="T610" t="s">
         <v>2171</v>
@@ -40901,7 +40898,7 @@
         <v>2348</v>
       </c>
       <c r="S611" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="612" spans="1:22" x14ac:dyDescent="0.25">
@@ -40948,10 +40945,10 @@
         <v>172</v>
       </c>
       <c r="R612" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="S612" s="2" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.25">
@@ -40998,10 +40995,10 @@
         <v>52</v>
       </c>
       <c r="R613" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="S613" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.25">
@@ -41048,10 +41045,10 @@
         <v>172</v>
       </c>
       <c r="R614" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S614" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.25">
@@ -41098,10 +41095,10 @@
         <v>52</v>
       </c>
       <c r="R615" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="S615" s="2" t="s">
         <v>2721</v>
-      </c>
-      <c r="S615" s="2" t="s">
-        <v>2722</v>
       </c>
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.25">
@@ -41148,10 +41145,10 @@
         <v>172</v>
       </c>
       <c r="R616" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="S616" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.25">
@@ -41198,10 +41195,10 @@
         <v>52</v>
       </c>
       <c r="R617" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="S617" s="2" t="s">
         <v>2724</v>
-      </c>
-      <c r="S617" s="2" t="s">
-        <v>2725</v>
       </c>
     </row>
     <row r="618" spans="1:22" x14ac:dyDescent="0.25">
@@ -41248,10 +41245,10 @@
         <v>52</v>
       </c>
       <c r="R618" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="S618" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.25">
@@ -41298,10 +41295,10 @@
         <v>52</v>
       </c>
       <c r="R619" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="S619" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.25">
@@ -41348,10 +41345,10 @@
         <v>52</v>
       </c>
       <c r="R620" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="S620" s="2" t="s">
         <v>2727</v>
-      </c>
-      <c r="S620" s="2" t="s">
-        <v>2728</v>
       </c>
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.25">
@@ -41401,7 +41398,7 @@
         <v>2405</v>
       </c>
       <c r="S621" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="622" spans="1:22" x14ac:dyDescent="0.25">
@@ -41448,10 +41445,10 @@
         <v>52</v>
       </c>
       <c r="R622" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="S622" s="2" t="s">
         <v>2730</v>
-      </c>
-      <c r="S622" s="2" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.25">
@@ -41498,10 +41495,10 @@
         <v>52</v>
       </c>
       <c r="R623" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="S623" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.25">
@@ -41548,10 +41545,10 @@
         <v>52</v>
       </c>
       <c r="R624" s="2" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="S624" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.25">
@@ -41598,10 +41595,10 @@
         <v>52</v>
       </c>
       <c r="R625" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="S625" s="2" t="s">
         <v>2734</v>
-      </c>
-      <c r="S625" s="2" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.25">
@@ -41651,7 +41648,7 @@
         <v>2398</v>
       </c>
       <c r="S626" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.25">
@@ -41701,7 +41698,7 @@
         <v>2191</v>
       </c>
       <c r="S627" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="628" spans="1:22" x14ac:dyDescent="0.25">
@@ -41748,10 +41745,10 @@
         <v>52</v>
       </c>
       <c r="R628" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="S628" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.25">
@@ -41798,10 +41795,10 @@
         <v>172</v>
       </c>
       <c r="R629" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="S629" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="630" spans="1:22" x14ac:dyDescent="0.25">
@@ -41851,7 +41848,7 @@
         <v>2248</v>
       </c>
       <c r="S630" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="631" spans="1:22" x14ac:dyDescent="0.25">
@@ -41898,10 +41895,10 @@
         <v>172</v>
       </c>
       <c r="R631" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="S631" s="2" t="s">
         <v>2737</v>
-      </c>
-      <c r="S631" s="2" t="s">
-        <v>2738</v>
       </c>
       <c r="T631" t="s">
         <v>2171</v>
@@ -41957,10 +41954,10 @@
         <v>52</v>
       </c>
       <c r="R632" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="S632" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="T632" t="s">
         <v>2171</v>
@@ -42016,10 +42013,10 @@
         <v>172</v>
       </c>
       <c r="R633" s="2" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="S633" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="T633" t="s">
         <v>2171</v>
@@ -42075,10 +42072,10 @@
         <v>52</v>
       </c>
       <c r="R634" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="S634" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T634" t="s">
         <v>2171</v>
@@ -42134,10 +42131,10 @@
         <v>172</v>
       </c>
       <c r="R635" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="S635" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T635" t="s">
         <v>2171</v>
@@ -42193,10 +42190,10 @@
         <v>52</v>
       </c>
       <c r="R636" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="S636" s="2" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="T636" t="s">
         <v>2171</v>
@@ -42252,10 +42249,10 @@
         <v>52</v>
       </c>
       <c r="R637" s="2" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="S637" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="T637" t="s">
         <v>2171</v>
@@ -42370,10 +42367,10 @@
         <v>172</v>
       </c>
       <c r="R639" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="S639" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="T639" t="s">
         <v>2171</v>
@@ -42429,10 +42426,10 @@
         <v>172</v>
       </c>
       <c r="R640" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="S640" s="2" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="T640" t="s">
         <v>2171</v>
@@ -42488,10 +42485,10 @@
         <v>172</v>
       </c>
       <c r="R641" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="S641" s="2" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="T641" t="s">
         <v>2171</v>
@@ -42550,10 +42547,10 @@
         <v>172</v>
       </c>
       <c r="R642" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="S642" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="T642" t="s">
         <v>2171</v>
@@ -42609,10 +42606,10 @@
         <v>136</v>
       </c>
       <c r="R643" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="S643" s="2" t="s">
         <v>2746</v>
-      </c>
-      <c r="S643" s="2" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.25">
@@ -42659,10 +42656,10 @@
         <v>52</v>
       </c>
       <c r="R644" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="S644" s="2" t="s">
         <v>2748</v>
-      </c>
-      <c r="S644" s="2" t="s">
-        <v>2749</v>
       </c>
       <c r="T644" t="s">
         <v>2171</v>
@@ -42718,10 +42715,10 @@
         <v>172</v>
       </c>
       <c r="R645" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S645" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T645" t="s">
         <v>2171</v>
@@ -42777,10 +42774,10 @@
         <v>52</v>
       </c>
       <c r="R646" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="S646" s="2" t="s">
         <v>2748</v>
-      </c>
-      <c r="S646" s="2" t="s">
-        <v>2749</v>
       </c>
       <c r="T646" t="s">
         <v>2171</v>
@@ -42836,10 +42833,10 @@
         <v>52</v>
       </c>
       <c r="R647" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S647" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T647" t="s">
         <v>2171</v>
@@ -42895,10 +42892,10 @@
         <v>52</v>
       </c>
       <c r="R648" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="S648" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="T648" t="s">
         <v>2171</v>
@@ -42954,10 +42951,10 @@
         <v>136</v>
       </c>
       <c r="R649" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="S649" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="650" spans="1:22" x14ac:dyDescent="0.25">
@@ -43004,10 +43001,10 @@
         <v>52</v>
       </c>
       <c r="R650" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S650" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T650" t="s">
         <v>2171</v>
@@ -43063,10 +43060,10 @@
         <v>52</v>
       </c>
       <c r="R651" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="S651" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T651" t="s">
         <v>2171</v>
@@ -43122,10 +43119,10 @@
         <v>52</v>
       </c>
       <c r="R652" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S652" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T652" t="s">
         <v>2171</v>
@@ -43181,10 +43178,10 @@
         <v>52</v>
       </c>
       <c r="R653" s="2" t="s">
+        <v>2752</v>
+      </c>
+      <c r="S653" s="2" t="s">
         <v>2753</v>
-      </c>
-      <c r="S653" s="2" t="s">
-        <v>2754</v>
       </c>
       <c r="T653" t="s">
         <v>2171</v>
@@ -43240,10 +43237,10 @@
         <v>52</v>
       </c>
       <c r="R654" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="S654" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T654" t="s">
         <v>2171</v>
@@ -43299,10 +43296,10 @@
         <v>52</v>
       </c>
       <c r="R655" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S655" s="2" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="T655" t="s">
         <v>2171</v>
@@ -43358,10 +43355,10 @@
         <v>52</v>
       </c>
       <c r="R656" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S656" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="T656" t="s">
         <v>2171</v>
@@ -43417,10 +43414,10 @@
         <v>136</v>
       </c>
       <c r="R657" s="2" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="S657" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="658" spans="1:22" x14ac:dyDescent="0.25">
@@ -43467,10 +43464,10 @@
         <v>136</v>
       </c>
       <c r="R658" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="S658" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="659" spans="1:22" x14ac:dyDescent="0.25">
@@ -43517,10 +43514,10 @@
         <v>136</v>
       </c>
       <c r="R659" s="2" t="s">
+        <v>2755</v>
+      </c>
+      <c r="S659" s="2" t="s">
         <v>2756</v>
-      </c>
-      <c r="S659" s="2" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.25">
@@ -43567,10 +43564,10 @@
         <v>136</v>
       </c>
       <c r="R660" s="2" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="S660" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="661" spans="1:22" x14ac:dyDescent="0.25">
@@ -43617,10 +43614,10 @@
         <v>136</v>
       </c>
       <c r="R661" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="S661" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="662" spans="1:22" x14ac:dyDescent="0.25">
@@ -43667,10 +43664,10 @@
         <v>136</v>
       </c>
       <c r="R662" s="2" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="S662" s="2" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="663" spans="1:22" x14ac:dyDescent="0.25">
@@ -43720,10 +43717,10 @@
         <v>2163</v>
       </c>
       <c r="R663" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S663" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T663" t="s">
         <v>2171</v>
@@ -43779,10 +43776,10 @@
         <v>52</v>
       </c>
       <c r="R664" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S664" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T664" t="s">
         <v>2171</v>
@@ -43838,10 +43835,10 @@
         <v>52</v>
       </c>
       <c r="R665" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S665" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="T665" t="s">
         <v>2171</v>
@@ -43897,10 +43894,10 @@
         <v>52</v>
       </c>
       <c r="R666" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="S666" s="2" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="T666" t="s">
         <v>2171</v>
@@ -43956,10 +43953,10 @@
         <v>52</v>
       </c>
       <c r="R667" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="S667" s="2" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="T667" t="s">
         <v>2171</v>
@@ -44015,10 +44012,10 @@
         <v>172</v>
       </c>
       <c r="R668" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="S668" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="T668" t="s">
         <v>2171</v>
@@ -44068,10 +44065,10 @@
         <v>172</v>
       </c>
       <c r="R669" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S669" s="2" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="670" spans="1:22" x14ac:dyDescent="0.25">
@@ -44112,10 +44109,10 @@
         <v>172</v>
       </c>
       <c r="R670" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S670" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T670" t="s">
         <v>2171</v>
@@ -44165,10 +44162,10 @@
         <v>172</v>
       </c>
       <c r="R671" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S671" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T671" t="s">
         <v>2171</v>
@@ -44218,10 +44215,10 @@
         <v>172</v>
       </c>
       <c r="R672" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S672" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T672" t="s">
         <v>2171</v>
@@ -44271,10 +44268,10 @@
         <v>172</v>
       </c>
       <c r="R673" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S673" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T673" t="s">
         <v>2171</v>
@@ -44324,10 +44321,10 @@
         <v>172</v>
       </c>
       <c r="R674" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S674" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T674" t="s">
         <v>2171</v>
@@ -44377,10 +44374,10 @@
         <v>172</v>
       </c>
       <c r="R675" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S675" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T675" t="s">
         <v>2171</v>
@@ -44430,10 +44427,10 @@
         <v>172</v>
       </c>
       <c r="R676" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S676" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T676" t="s">
         <v>2171</v>
@@ -44483,10 +44480,10 @@
         <v>172</v>
       </c>
       <c r="R677" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S677" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T677" t="s">
         <v>2171</v>
@@ -44536,10 +44533,10 @@
         <v>172</v>
       </c>
       <c r="R678" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S678" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T678" t="s">
         <v>2171</v>
@@ -44589,10 +44586,10 @@
         <v>172</v>
       </c>
       <c r="R679" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S679" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T679" t="s">
         <v>2171</v>
@@ -44642,10 +44639,10 @@
         <v>172</v>
       </c>
       <c r="R680" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S680" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T680" t="s">
         <v>2171</v>
@@ -44695,10 +44692,10 @@
         <v>172</v>
       </c>
       <c r="R681" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S681" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T681" t="s">
         <v>2171</v>
@@ -44748,10 +44745,10 @@
         <v>172</v>
       </c>
       <c r="R682" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S682" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T682" t="s">
         <v>2171</v>
@@ -44801,10 +44798,10 @@
         <v>172</v>
       </c>
       <c r="R683" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S683" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T683" t="s">
         <v>2171</v>
@@ -44854,10 +44851,10 @@
         <v>172</v>
       </c>
       <c r="R684" s="2" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S684" s="2" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="T684" t="s">
         <v>2171</v>
@@ -44913,7 +44910,7 @@
         <v>2356</v>
       </c>
       <c r="S685" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="T685" t="s">
         <v>2171</v>
@@ -45080,10 +45077,10 @@
         <v>172</v>
       </c>
       <c r="R689" s="2" t="s">
+        <v>2760</v>
+      </c>
+      <c r="S689" s="2" t="s">
         <v>2761</v>
-      </c>
-      <c r="S689" s="2" t="s">
-        <v>2762</v>
       </c>
       <c r="T689" t="s">
         <v>2171</v>
@@ -45232,10 +45229,10 @@
         <v>172</v>
       </c>
       <c r="R692" s="2" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="S692" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="T692" t="s">
         <v>2171</v>
@@ -45294,7 +45291,7 @@
         <v>2220</v>
       </c>
       <c r="S693" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="694" spans="1:22" x14ac:dyDescent="0.25">
@@ -45344,201 +45341,11 @@
         <v>2363</v>
       </c>
       <c r="S694" s="2" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="695" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V695" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="696" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V696" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="697" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V697" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="698" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V698" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="699" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V699" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="700" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V700" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="701" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V701" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="702" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V702" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="703" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V703" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="704" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V704" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="705" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V705" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="706" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V706" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="707" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V707" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="708" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V708" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="709" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V709" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="710" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V710" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="711" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V711" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="712" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V712" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="713" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V713" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="714" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V714" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="715" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V715" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="716" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V716" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="717" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V717" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="718" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V718" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="719" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V719" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="720" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V720" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="721" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V721" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="722" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V722" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="723" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V723" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="724" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V724" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="725" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V725" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="726" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V726" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="727" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V727" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="728" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V728" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="729" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V729" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="730" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V730" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="731" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V731" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="732" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V732" t="s">
-        <v>2417</v>
+        <v>2515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q732" xr:uid="{8124D544-9C02-420C-8716-71419A885248}"/>
+  <autoFilter ref="A1:Q694" xr:uid="{8124D544-9C02-420C-8716-71419A885248}"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.1811023622047245" bottom="1.1811023622047245" header="0.78740157480314954" footer="0.78740157480314954"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
